--- a/input.xlsx
+++ b/input.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Агент</t>
   </si>
@@ -197,21 +197,6 @@
     <t>10.0</t>
   </si>
   <si>
-    <t>Музей камня</t>
-  </si>
-  <si>
-    <t>вс 2023.12.17 10:30:33 PM MSK</t>
-  </si>
-  <si>
-    <t>Сувениры</t>
-  </si>
-  <si>
-    <t>600.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
     <t>Метро СПб</t>
   </si>
   <si>
@@ -227,7 +212,7 @@
     <t>730.0</t>
   </si>
   <si>
-    <t>23.0</t>
+    <t>12.0</t>
   </si>
 </sst>
 </file>
@@ -293,7 +278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -565,42 +550,19 @@
         <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
         <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
